--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1544996.856277691</v>
+        <v>-1547442.710625938</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5564200.811496543</v>
+        <v>5564200.811496512</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>328.3858275440078</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.7631326885914</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>280.9037875017386</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>287.0850285150734</v>
       </c>
     </row>
     <row r="3">
@@ -792,13 +792,13 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>26.26583888007722</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>144.577399146572</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>413.3764625499721</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>132.997194893274</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>88.42622435099841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>128.3844410432586</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>144.5773991465717</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>68.16471659739285</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9989687926584</v>
       </c>
       <c r="H11" t="n">
-        <v>262.2297602328165</v>
+        <v>305.6400806867033</v>
       </c>
       <c r="I11" t="n">
-        <v>83.10734589712536</v>
+        <v>83.1073458971253</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.735439822809</v>
+        <v>90.32511936892442</v>
       </c>
       <c r="T11" t="n">
         <v>208.6336019814899</v>
@@ -1464,10 +1464,10 @@
         <v>135.5758450585383</v>
       </c>
       <c r="H12" t="n">
-        <v>95.16345312031937</v>
+        <v>95.16345312031936</v>
       </c>
       <c r="I12" t="n">
-        <v>28.53599240546132</v>
+        <v>28.53599240546129</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.8494370543329</v>
+        <v>138.8494370543328</v>
       </c>
       <c r="T12" t="n">
         <v>193.0397696413399</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.509022445856</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.0512283208443</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>110.6592196523228</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>60.99243894773063</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2381953430762</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.99106119267245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.4354819700674</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8692712648427</v>
+        <v>299.869271264843</v>
       </c>
       <c r="I14" t="n">
-        <v>61.38352016918404</v>
+        <v>61.38352016918478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.8949838530154</v>
+        <v>120.8949838530159</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1669384155976</v>
+        <v>206.1669384155977</v>
       </c>
       <c r="U14" t="n">
         <v>251.0362724642311</v>
@@ -1701,10 +1701,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H15" t="n">
-        <v>92.25167483393076</v>
+        <v>92.25167483393089</v>
       </c>
       <c r="I15" t="n">
-        <v>18.15567471783621</v>
+        <v>18.15567471783663</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2493548368689</v>
+        <v>133.2493548368691</v>
       </c>
       <c r="T15" t="n">
         <v>191.8245451884829</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>92.78858407157642</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.18348268093567</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.2827825650926</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.29417540882876</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7851995308441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.533613790368</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>411.4354819700674</v>
       </c>
       <c r="H17" t="n">
-        <v>299.8692712648427</v>
+        <v>299.869271264843</v>
       </c>
       <c r="I17" t="n">
-        <v>61.38352016918387</v>
+        <v>61.38352016918478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.8949838530154</v>
+        <v>120.8949838530159</v>
       </c>
       <c r="T17" t="n">
-        <v>206.1669384155976</v>
+        <v>206.1669384155977</v>
       </c>
       <c r="U17" t="n">
         <v>251.0362724642311</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H18" t="n">
-        <v>92.25167483393076</v>
+        <v>92.25167483393089</v>
       </c>
       <c r="I18" t="n">
-        <v>18.15567471783621</v>
+        <v>18.15567471783663</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.2493548368689</v>
+        <v>133.2493548368691</v>
       </c>
       <c r="T18" t="n">
         <v>191.8245451884829</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.1056185442072</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>103.2827825650923</v>
+        <v>103.2827825650926</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.29417540882829</v>
+        <v>99.29417540882876</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>101.64083623151</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.4354819700674</v>
       </c>
       <c r="H20" t="n">
-        <v>299.8692712648427</v>
+        <v>299.869271264843</v>
       </c>
       <c r="I20" t="n">
-        <v>61.38352016918387</v>
+        <v>61.38352016918478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.8949838530154</v>
+        <v>120.8949838530159</v>
       </c>
       <c r="T20" t="n">
-        <v>206.1669384155976</v>
+        <v>206.1669384155977</v>
       </c>
       <c r="U20" t="n">
         <v>251.0362724642311</v>
@@ -2175,10 +2175,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H21" t="n">
-        <v>92.25167483393076</v>
+        <v>92.25167483393089</v>
       </c>
       <c r="I21" t="n">
-        <v>18.15567471783621</v>
+        <v>18.15567471783663</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.2493548368689</v>
+        <v>133.2493548368691</v>
       </c>
       <c r="T21" t="n">
         <v>191.8245451884829</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2562616559684</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.8039551162068</v>
       </c>
       <c r="I22" t="n">
-        <v>103.2827825650923</v>
+        <v>103.2827825650926</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>99.29417540882829</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.7851995308441</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.533613790368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2244083909005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>134.5371567712407</v>
+        <v>157.7154055626122</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,10 +2333,10 @@
         <v>411.4354819700674</v>
       </c>
       <c r="H23" t="n">
-        <v>299.8692712648427</v>
+        <v>299.869271264843</v>
       </c>
       <c r="I23" t="n">
-        <v>61.38352016918387</v>
+        <v>61.38352016918478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>120.8949838530154</v>
+        <v>120.8949838530159</v>
       </c>
       <c r="T23" t="n">
-        <v>206.1669384155976</v>
+        <v>206.1669384155977</v>
       </c>
       <c r="U23" t="n">
         <v>251.0362724642311</v>
@@ -2412,10 +2412,10 @@
         <v>135.274353028885</v>
       </c>
       <c r="H24" t="n">
-        <v>92.25167483393076</v>
+        <v>92.25167483393089</v>
       </c>
       <c r="I24" t="n">
-        <v>18.15567471783621</v>
+        <v>18.15567471783663</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.2493548368689</v>
+        <v>133.2493548368691</v>
       </c>
       <c r="T24" t="n">
         <v>191.8245451884829</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.9757643088765</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2562616559684</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.8039551162068</v>
       </c>
       <c r="I25" t="n">
-        <v>103.2827825650923</v>
+        <v>103.2827825650926</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>99.29417540882876</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.533613790368</v>
+        <v>183.4673616241408</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.41670903610059</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>140.2023899461076</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3016,7 +3016,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335029</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,16 +3904,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124555</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1496.015565347187</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.015565347187</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1137.749866740437</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353781</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2256.081163672389</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2256.081163672389</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2256.081163672389</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>1882.615405411309</v>
+        <v>1928.439929004272</v>
       </c>
       <c r="Y2" t="n">
-        <v>1882.615405411309</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.9493689922781</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>701.5978338225178</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5978338225178</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>624.9609401989841</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U7" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.661061815299</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C8" t="n">
-        <v>1838.661061815299</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2313.706052077265</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1940.240293816185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>1550.100961840373</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640003</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9807587360934</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2385.3652382563</v>
+        <v>2429.214046795579</v>
       </c>
       <c r="C11" t="n">
-        <v>2016.402721315888</v>
+        <v>2060.251529855168</v>
       </c>
       <c r="D11" t="n">
-        <v>1658.137022709137</v>
+        <v>1701.985831248417</v>
       </c>
       <c r="E11" t="n">
-        <v>1272.348770110893</v>
+        <v>1316.197578650173</v>
       </c>
       <c r="F11" t="n">
-        <v>861.3628653212857</v>
+        <v>905.2116738605653</v>
       </c>
       <c r="G11" t="n">
-        <v>445.2022907832468</v>
+        <v>489.0510993225265</v>
       </c>
       <c r="H11" t="n">
         <v>180.3237450935332</v>
       </c>
       <c r="I11" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J11" t="n">
-        <v>362.1463427981748</v>
+        <v>362.1463427981757</v>
       </c>
       <c r="K11" t="n">
-        <v>881.2106016345174</v>
+        <v>881.2106016345183</v>
       </c>
       <c r="L11" t="n">
-        <v>1577.432341064686</v>
+        <v>1577.432341064687</v>
       </c>
       <c r="M11" t="n">
-        <v>2368.71971922126</v>
+        <v>2368.719719221261</v>
       </c>
       <c r="N11" t="n">
-        <v>3158.178956876078</v>
+        <v>3158.17895687608</v>
       </c>
       <c r="O11" t="n">
-        <v>3858.45529073452</v>
+        <v>3858.455290734522</v>
       </c>
       <c r="P11" t="n">
-        <v>4418.450557309584</v>
+        <v>4418.450557309586</v>
       </c>
       <c r="Q11" t="n">
-        <v>4761.76192117024</v>
+        <v>4761.761921170242</v>
       </c>
       <c r="R11" t="n">
-        <v>4818.846552801642</v>
+        <v>4818.846552801644</v>
       </c>
       <c r="S11" t="n">
-        <v>4683.76024995032</v>
+        <v>4727.609058489599</v>
       </c>
       <c r="T11" t="n">
-        <v>4473.019237847805</v>
+        <v>4516.868046387084</v>
       </c>
       <c r="U11" t="n">
-        <v>4219.401711170998</v>
+        <v>4263.250519710277</v>
       </c>
       <c r="V11" t="n">
-        <v>3888.338823827427</v>
+        <v>3932.187632366707</v>
       </c>
       <c r="W11" t="n">
-        <v>3535.570168557313</v>
+        <v>3579.418977096593</v>
       </c>
       <c r="X11" t="n">
-        <v>3162.104410296233</v>
+        <v>3205.953218835513</v>
       </c>
       <c r="Y11" t="n">
-        <v>2771.965078320422</v>
+        <v>2815.813886859701</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.2011658090241</v>
       </c>
       <c r="I12" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J12" t="n">
         <v>260.9739923039073</v>
       </c>
       <c r="K12" t="n">
-        <v>486.6385832766809</v>
+        <v>668.9174297255273</v>
       </c>
       <c r="L12" t="n">
-        <v>729.4413326734808</v>
+        <v>1044.719473627018</v>
       </c>
       <c r="M12" t="n">
-        <v>1032.137557125985</v>
+        <v>1347.415698079522</v>
       </c>
       <c r="N12" t="n">
-        <v>1357.253894854767</v>
+        <v>1672.532035808304</v>
       </c>
       <c r="O12" t="n">
-        <v>2022.375728129676</v>
+        <v>2337.653869083214</v>
       </c>
       <c r="P12" t="n">
         <v>2539.191569832018</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.3070868277342</v>
+        <v>584.0608420311119</v>
       </c>
       <c r="C13" t="n">
-        <v>559.3709038998273</v>
+        <v>415.124659103205</v>
       </c>
       <c r="D13" t="n">
-        <v>559.3709038998273</v>
+        <v>415.124659103205</v>
       </c>
       <c r="E13" t="n">
-        <v>411.4578103174342</v>
+        <v>415.124659103205</v>
       </c>
       <c r="F13" t="n">
-        <v>264.5678628195238</v>
+        <v>415.124659103205</v>
       </c>
       <c r="G13" t="n">
-        <v>96.37693105603284</v>
+        <v>246.933727339714</v>
       </c>
       <c r="H13" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="I13" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J13" t="n">
         <v>107.6779529243302</v>
       </c>
       <c r="K13" t="n">
-        <v>256.0858401042729</v>
+        <v>256.0858401042731</v>
       </c>
       <c r="L13" t="n">
-        <v>501.5232752503324</v>
+        <v>501.5232752503326</v>
       </c>
       <c r="M13" t="n">
-        <v>770.6917608386354</v>
+        <v>770.6917608386358</v>
       </c>
       <c r="N13" t="n">
         <v>1038.894637882649</v>
       </c>
       <c r="O13" t="n">
-        <v>1270.607109211874</v>
+        <v>1270.607109211875</v>
       </c>
       <c r="P13" t="n">
-        <v>1445.35647577152</v>
+        <v>1445.356475771521</v>
       </c>
       <c r="Q13" t="n">
-        <v>1482.908799050197</v>
+        <v>1482.908799050198</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.908799050197</v>
+        <v>1371.131809502397</v>
       </c>
       <c r="S13" t="n">
-        <v>1482.908799050197</v>
+        <v>1309.52328531277</v>
       </c>
       <c r="T13" t="n">
-        <v>1482.908799050197</v>
+        <v>1309.52328531277</v>
       </c>
       <c r="U13" t="n">
-        <v>1482.908799050197</v>
+        <v>1020.393795067238</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.908799050197</v>
+        <v>765.7093068613516</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.491629013236</v>
+        <v>765.7093068613516</v>
       </c>
       <c r="X13" t="n">
-        <v>965.5020781152189</v>
+        <v>765.7093068613516</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.955551657974</v>
+        <v>765.7093068613516</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2400.872509449727</v>
+        <v>2400.872509449729</v>
       </c>
       <c r="C14" t="n">
-        <v>2031.909992509315</v>
+        <v>2031.909992509317</v>
       </c>
       <c r="D14" t="n">
-        <v>1673.644293902565</v>
+        <v>1673.644293902567</v>
       </c>
       <c r="E14" t="n">
-        <v>1287.856041304321</v>
+        <v>1287.856041304323</v>
       </c>
       <c r="F14" t="n">
-        <v>876.8701365147135</v>
+        <v>876.8701365147153</v>
       </c>
       <c r="G14" t="n">
-        <v>461.2787405853526</v>
+        <v>461.2787405853543</v>
       </c>
       <c r="H14" t="n">
-        <v>158.3804867824812</v>
+        <v>158.3804867824826</v>
       </c>
       <c r="I14" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J14" t="n">
-        <v>409.4933301099732</v>
+        <v>409.4933301099713</v>
       </c>
       <c r="K14" t="n">
-        <v>999.5184494863904</v>
+        <v>999.5184494863856</v>
       </c>
       <c r="L14" t="n">
-        <v>1783.773411205035</v>
+        <v>1783.773411205027</v>
       </c>
       <c r="M14" t="n">
-        <v>2673.014711343527</v>
+        <v>2497.718021322109</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.03941267774</v>
+        <v>2953.742722656317</v>
       </c>
       <c r="O14" t="n">
-        <v>3682.951579316532</v>
+        <v>3748.010834990794</v>
       </c>
       <c r="P14" t="n">
-        <v>4323.166654244246</v>
+        <v>4388.225909918505</v>
       </c>
       <c r="Q14" t="n">
-        <v>4726.719753341851</v>
+        <v>4791.779009016107</v>
       </c>
       <c r="R14" t="n">
-        <v>4818.846552801642</v>
+        <v>4818.846552801644</v>
       </c>
       <c r="S14" t="n">
-        <v>4696.730407495565</v>
+        <v>4696.730407495567</v>
       </c>
       <c r="T14" t="n">
-        <v>4488.480974752538</v>
+        <v>4488.48097475254</v>
       </c>
       <c r="U14" t="n">
-        <v>4234.908982364425</v>
+        <v>4234.908982364427</v>
       </c>
       <c r="V14" t="n">
-        <v>3903.846095020855</v>
+        <v>3903.846095020856</v>
       </c>
       <c r="W14" t="n">
-        <v>3551.07743975074</v>
+        <v>3551.077439750742</v>
       </c>
       <c r="X14" t="n">
-        <v>3177.61168148966</v>
+        <v>3177.611681489662</v>
       </c>
       <c r="Y14" t="n">
-        <v>2787.472349513849</v>
+        <v>2787.472349513851</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>973.6997189170341</v>
+        <v>973.6997189170348</v>
       </c>
       <c r="C15" t="n">
-        <v>799.2466896359072</v>
+        <v>799.2466896359078</v>
       </c>
       <c r="D15" t="n">
-        <v>650.3122799746559</v>
+        <v>650.3122799746566</v>
       </c>
       <c r="E15" t="n">
-        <v>491.0748249692004</v>
+        <v>491.074824969201</v>
       </c>
       <c r="F15" t="n">
-        <v>344.5402669960854</v>
+        <v>344.540266996086</v>
       </c>
       <c r="G15" t="n">
-        <v>207.899506360848</v>
+        <v>207.8995063608486</v>
       </c>
       <c r="H15" t="n">
-        <v>114.7159964275846</v>
+        <v>114.715996427585</v>
       </c>
       <c r="I15" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J15" t="n">
-        <v>289.1735335874794</v>
+        <v>289.1735335874782</v>
       </c>
       <c r="K15" t="n">
-        <v>579.0534392592881</v>
+        <v>483.4938939771198</v>
       </c>
       <c r="L15" t="n">
-        <v>886.6636855802436</v>
+        <v>886.6636855802587</v>
       </c>
       <c r="M15" t="n">
-        <v>1264.987202171086</v>
+        <v>1264.987202171098</v>
       </c>
       <c r="N15" t="n">
-        <v>1667.732461425079</v>
+        <v>1667.732461425087</v>
       </c>
       <c r="O15" t="n">
-        <v>2013.945895770751</v>
+        <v>2013.945895770757</v>
       </c>
       <c r="P15" t="n">
-        <v>2272.479633305412</v>
+        <v>2272.479633305416</v>
       </c>
       <c r="Q15" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="R15" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="S15" t="n">
-        <v>2468.764600726214</v>
+        <v>2468.764600726215</v>
       </c>
       <c r="T15" t="n">
         <v>2275.002433869161</v>
       </c>
       <c r="U15" t="n">
-        <v>2046.916319867533</v>
+        <v>2046.916319867534</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.76421163579</v>
+        <v>1811.764211635791</v>
       </c>
       <c r="W15" t="n">
         <v>1557.526854907589</v>
       </c>
       <c r="X15" t="n">
-        <v>1349.675354702056</v>
+        <v>1349.675354702057</v>
       </c>
       <c r="Y15" t="n">
-        <v>1141.915055937102</v>
+        <v>1141.915055937103</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.0389564804816</v>
+        <v>393.0568162526553</v>
       </c>
       <c r="C16" t="n">
-        <v>190.1027735525747</v>
+        <v>224.1206333247484</v>
       </c>
       <c r="D16" t="n">
-        <v>190.1027735525747</v>
+        <v>224.1206333247484</v>
       </c>
       <c r="E16" t="n">
-        <v>190.1027735525747</v>
+        <v>224.1206333247484</v>
       </c>
       <c r="F16" t="n">
-        <v>190.1027735525747</v>
+        <v>224.1206333247484</v>
       </c>
       <c r="G16" t="n">
-        <v>96.37693105603284</v>
+        <v>224.1206333247484</v>
       </c>
       <c r="H16" t="n">
-        <v>96.37693105603284</v>
+        <v>200.702974051076</v>
       </c>
       <c r="I16" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3694388909376</v>
+        <v>125.3694388909369</v>
       </c>
       <c r="K16" t="n">
-        <v>302.8498721237596</v>
+        <v>302.8498721237577</v>
       </c>
       <c r="L16" t="n">
-        <v>585.4901568902251</v>
+        <v>585.4901568902217</v>
       </c>
       <c r="M16" t="n">
-        <v>893.8838311788254</v>
+        <v>893.8838311788204</v>
       </c>
       <c r="N16" t="n">
-        <v>1200.37920960845</v>
+        <v>1200.379209608444</v>
       </c>
       <c r="O16" t="n">
-        <v>1467.461003788237</v>
+        <v>1467.461003788229</v>
       </c>
       <c r="P16" t="n">
-        <v>1672.474936285872</v>
+        <v>1672.474936285863</v>
       </c>
       <c r="Q16" t="n">
-        <v>1730.980876285446</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="R16" t="n">
-        <v>1730.980876285446</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="S16" t="n">
-        <v>1535.238250496715</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="T16" t="n">
-        <v>1312.477024445838</v>
+        <v>1407.922503356955</v>
       </c>
       <c r="U16" t="n">
-        <v>1023.361460414626</v>
+        <v>1118.806939325742</v>
       </c>
       <c r="V16" t="n">
-        <v>768.6769722087387</v>
+        <v>864.1224511198556</v>
       </c>
       <c r="W16" t="n">
-        <v>768.6769722087387</v>
+        <v>574.705281082895</v>
       </c>
       <c r="X16" t="n">
-        <v>540.6874213107213</v>
+        <v>574.705281082895</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.6874213107213</v>
+        <v>574.705281082895</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2400.872509449728</v>
+        <v>2400.872509449729</v>
       </c>
       <c r="C17" t="n">
-        <v>2031.909992509316</v>
+        <v>2031.909992509317</v>
       </c>
       <c r="D17" t="n">
-        <v>1673.644293902566</v>
+        <v>1673.644293902567</v>
       </c>
       <c r="E17" t="n">
         <v>1287.856041304322</v>
       </c>
       <c r="F17" t="n">
-        <v>876.870136514714</v>
+        <v>876.8701365147149</v>
       </c>
       <c r="G17" t="n">
-        <v>461.2787405853528</v>
+        <v>461.2787405853538</v>
       </c>
       <c r="H17" t="n">
-        <v>158.3804867824814</v>
+        <v>158.3804867824822</v>
       </c>
       <c r="I17" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J17" t="n">
-        <v>409.4933301099732</v>
+        <v>409.4933301099713</v>
       </c>
       <c r="K17" t="n">
-        <v>854.9616104659113</v>
+        <v>999.5184494863856</v>
       </c>
       <c r="L17" t="n">
-        <v>1639.216572184556</v>
+        <v>1783.773411205027</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.457872323048</v>
+        <v>2227.996313185611</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.456028825125</v>
+        <v>2953.742722656317</v>
       </c>
       <c r="O17" t="n">
-        <v>4211.724141159606</v>
+        <v>3748.010834990794</v>
       </c>
       <c r="P17" t="n">
-        <v>4533.358494997552</v>
+        <v>4388.225909918505</v>
       </c>
       <c r="Q17" t="n">
-        <v>4726.719753341851</v>
+        <v>4791.779009016107</v>
       </c>
       <c r="R17" t="n">
-        <v>4818.846552801642</v>
+        <v>4818.846552801644</v>
       </c>
       <c r="S17" t="n">
-        <v>4696.730407495565</v>
+        <v>4696.730407495567</v>
       </c>
       <c r="T17" t="n">
-        <v>4488.480974752538</v>
+        <v>4488.48097475254</v>
       </c>
       <c r="U17" t="n">
-        <v>4234.908982364426</v>
+        <v>4234.908982364427</v>
       </c>
       <c r="V17" t="n">
         <v>3903.846095020856</v>
       </c>
       <c r="W17" t="n">
-        <v>3551.077439750741</v>
+        <v>3551.077439750742</v>
       </c>
       <c r="X17" t="n">
-        <v>3177.611681489661</v>
+        <v>3177.611681489662</v>
       </c>
       <c r="Y17" t="n">
-        <v>2787.47234951385</v>
+        <v>2787.472349513851</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>973.6997189170341</v>
+        <v>973.6997189170348</v>
       </c>
       <c r="C18" t="n">
-        <v>799.2466896359072</v>
+        <v>799.2466896359078</v>
       </c>
       <c r="D18" t="n">
-        <v>650.3122799746559</v>
+        <v>650.3122799746566</v>
       </c>
       <c r="E18" t="n">
-        <v>491.0748249692004</v>
+        <v>491.074824969201</v>
       </c>
       <c r="F18" t="n">
-        <v>344.5402669960854</v>
+        <v>344.540266996086</v>
       </c>
       <c r="G18" t="n">
-        <v>207.899506360848</v>
+        <v>207.8995063608486</v>
       </c>
       <c r="H18" t="n">
-        <v>114.7159964275846</v>
+        <v>114.715996427585</v>
       </c>
       <c r="I18" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J18" t="n">
-        <v>289.1735335874794</v>
+        <v>289.1735335874782</v>
       </c>
       <c r="K18" t="n">
-        <v>579.0534392592881</v>
+        <v>483.4938939771198</v>
       </c>
       <c r="L18" t="n">
-        <v>886.6636855802436</v>
+        <v>886.6636855802587</v>
       </c>
       <c r="M18" t="n">
-        <v>1264.987202171086</v>
+        <v>1264.987202171098</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.732461425079</v>
+        <v>1667.732461425087</v>
       </c>
       <c r="O18" t="n">
-        <v>2013.945895770751</v>
+        <v>2013.945895770757</v>
       </c>
       <c r="P18" t="n">
-        <v>2272.479633305412</v>
+        <v>2272.479633305416</v>
       </c>
       <c r="Q18" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="R18" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="S18" t="n">
-        <v>2468.764600726214</v>
+        <v>2468.764600726215</v>
       </c>
       <c r="T18" t="n">
         <v>2275.002433869161</v>
       </c>
       <c r="U18" t="n">
-        <v>2046.916319867533</v>
+        <v>2046.916319867534</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.76421163579</v>
+        <v>1811.764211635791</v>
       </c>
       <c r="W18" t="n">
         <v>1557.526854907589</v>
       </c>
       <c r="X18" t="n">
-        <v>1349.675354702056</v>
+        <v>1349.675354702057</v>
       </c>
       <c r="Y18" t="n">
-        <v>1141.915055937102</v>
+        <v>1141.915055937103</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200.7029740510756</v>
+        <v>498.7327070458048</v>
       </c>
       <c r="C19" t="n">
-        <v>200.7029740510756</v>
+        <v>498.7327070458048</v>
       </c>
       <c r="D19" t="n">
-        <v>200.7029740510756</v>
+        <v>348.6160676334691</v>
       </c>
       <c r="E19" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="F19" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="G19" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="H19" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="I19" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J19" t="n">
-        <v>125.3694388909376</v>
+        <v>125.3694388909369</v>
       </c>
       <c r="K19" t="n">
-        <v>302.8498721237596</v>
+        <v>302.8498721237577</v>
       </c>
       <c r="L19" t="n">
-        <v>585.4901568902251</v>
+        <v>585.4901568902217</v>
       </c>
       <c r="M19" t="n">
-        <v>893.8838311788254</v>
+        <v>893.8838311788204</v>
       </c>
       <c r="N19" t="n">
-        <v>1200.37920960845</v>
+        <v>1200.379209608444</v>
       </c>
       <c r="O19" t="n">
-        <v>1467.461003788237</v>
+        <v>1467.461003788229</v>
       </c>
       <c r="P19" t="n">
-        <v>1672.474936285872</v>
+        <v>1672.474936285863</v>
       </c>
       <c r="Q19" t="n">
-        <v>1730.980876285446</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="R19" t="n">
-        <v>1630.683729407842</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="S19" t="n">
-        <v>1630.683729407842</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="T19" t="n">
-        <v>1407.922503356965</v>
+        <v>1407.922503356955</v>
       </c>
       <c r="U19" t="n">
-        <v>1118.806939325753</v>
+        <v>1118.806939325742</v>
       </c>
       <c r="V19" t="n">
-        <v>1118.806939325753</v>
+        <v>1118.806939325742</v>
       </c>
       <c r="W19" t="n">
-        <v>829.389769288792</v>
+        <v>829.3897692887817</v>
       </c>
       <c r="X19" t="n">
-        <v>601.4002183907746</v>
+        <v>601.4002183907644</v>
       </c>
       <c r="Y19" t="n">
-        <v>380.6076392472445</v>
+        <v>498.7327070458048</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1287.856041304322</v>
       </c>
       <c r="F20" t="n">
-        <v>876.870136514714</v>
+        <v>876.8701365147147</v>
       </c>
       <c r="G20" t="n">
-        <v>461.2787405853526</v>
+        <v>461.2787405853537</v>
       </c>
       <c r="H20" t="n">
-        <v>158.3804867824812</v>
+        <v>158.380486782482</v>
       </c>
       <c r="I20" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J20" t="n">
-        <v>267.2597284451795</v>
+        <v>409.4933301099713</v>
       </c>
       <c r="K20" t="n">
-        <v>536.3808893761435</v>
+        <v>999.5184494863856</v>
       </c>
       <c r="L20" t="n">
-        <v>1320.635851094788</v>
+        <v>1783.773411205027</v>
       </c>
       <c r="M20" t="n">
-        <v>2209.877151233281</v>
+        <v>2497.718021322109</v>
       </c>
       <c r="N20" t="n">
-        <v>3098.875307735357</v>
+        <v>2953.742722656317</v>
       </c>
       <c r="O20" t="n">
-        <v>3893.143420069838</v>
+        <v>3748.010834990794</v>
       </c>
       <c r="P20" t="n">
-        <v>4533.358494997552</v>
+        <v>4388.225909918505</v>
       </c>
       <c r="Q20" t="n">
-        <v>4726.719753341851</v>
+        <v>4791.779009016107</v>
       </c>
       <c r="R20" t="n">
-        <v>4818.846552801642</v>
+        <v>4818.846552801644</v>
       </c>
       <c r="S20" t="n">
-        <v>4696.730407495565</v>
+        <v>4696.730407495567</v>
       </c>
       <c r="T20" t="n">
-        <v>4488.480974752538</v>
+        <v>4488.48097475254</v>
       </c>
       <c r="U20" t="n">
         <v>4234.908982364426</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>973.6997189170341</v>
+        <v>973.6997189170348</v>
       </c>
       <c r="C21" t="n">
-        <v>799.2466896359072</v>
+        <v>799.2466896359078</v>
       </c>
       <c r="D21" t="n">
-        <v>650.3122799746559</v>
+        <v>650.3122799746566</v>
       </c>
       <c r="E21" t="n">
-        <v>491.0748249692004</v>
+        <v>491.074824969201</v>
       </c>
       <c r="F21" t="n">
-        <v>344.5402669960854</v>
+        <v>344.540266996086</v>
       </c>
       <c r="G21" t="n">
-        <v>207.899506360848</v>
+        <v>207.8995063608486</v>
       </c>
       <c r="H21" t="n">
-        <v>114.7159964275846</v>
+        <v>114.715996427585</v>
       </c>
       <c r="I21" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J21" t="n">
-        <v>289.1735335874794</v>
+        <v>164.3434086004735</v>
       </c>
       <c r="K21" t="n">
-        <v>579.0534392592881</v>
+        <v>358.6637689901151</v>
       </c>
       <c r="L21" t="n">
-        <v>886.6636855802436</v>
+        <v>666.2740153110681</v>
       </c>
       <c r="M21" t="n">
-        <v>1264.987202171086</v>
+        <v>1044.597531901908</v>
       </c>
       <c r="N21" t="n">
-        <v>1667.732461425079</v>
+        <v>1447.342791155897</v>
       </c>
       <c r="O21" t="n">
-        <v>2013.945895770751</v>
+        <v>2013.945895770757</v>
       </c>
       <c r="P21" t="n">
-        <v>2272.479633305412</v>
+        <v>2272.479633305416</v>
       </c>
       <c r="Q21" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="R21" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="S21" t="n">
-        <v>2468.764600726214</v>
+        <v>2468.764600726215</v>
       </c>
       <c r="T21" t="n">
         <v>2275.002433869161</v>
       </c>
       <c r="U21" t="n">
-        <v>2046.916319867533</v>
+        <v>2046.916319867534</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.76421163579</v>
+        <v>1811.764211635791</v>
       </c>
       <c r="W21" t="n">
         <v>1557.526854907589</v>
       </c>
       <c r="X21" t="n">
-        <v>1349.675354702056</v>
+        <v>1349.675354702057</v>
       </c>
       <c r="Y21" t="n">
-        <v>1141.915055937102</v>
+        <v>1141.915055937103</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>666.6457438892286</v>
+        <v>833.7746917453914</v>
       </c>
       <c r="C22" t="n">
-        <v>497.7095609613217</v>
+        <v>664.8385088174845</v>
       </c>
       <c r="D22" t="n">
-        <v>347.5929215489859</v>
+        <v>664.8385088174845</v>
       </c>
       <c r="E22" t="n">
-        <v>347.5929215489859</v>
+        <v>516.9254152350914</v>
       </c>
       <c r="F22" t="n">
-        <v>200.7029740510756</v>
+        <v>516.9254152350914</v>
       </c>
       <c r="G22" t="n">
-        <v>200.7029740510756</v>
+        <v>348.9897974007798</v>
       </c>
       <c r="H22" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="I22" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J22" t="n">
-        <v>125.3694388909376</v>
+        <v>125.3694388909369</v>
       </c>
       <c r="K22" t="n">
-        <v>302.8498721237596</v>
+        <v>302.8498721237577</v>
       </c>
       <c r="L22" t="n">
-        <v>585.4901568902251</v>
+        <v>585.4901568902217</v>
       </c>
       <c r="M22" t="n">
-        <v>893.8838311788254</v>
+        <v>893.8838311788204</v>
       </c>
       <c r="N22" t="n">
-        <v>1200.37920960845</v>
+        <v>1200.379209608444</v>
       </c>
       <c r="O22" t="n">
-        <v>1467.461003788237</v>
+        <v>1467.461003788229</v>
       </c>
       <c r="P22" t="n">
-        <v>1672.474936285872</v>
+        <v>1672.474936285863</v>
       </c>
       <c r="Q22" t="n">
-        <v>1730.980876285446</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="R22" t="n">
-        <v>1630.683729407842</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="S22" t="n">
-        <v>1434.941103619111</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="T22" t="n">
-        <v>1212.179877568234</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="U22" t="n">
-        <v>1212.179877568234</v>
+        <v>1441.865312254224</v>
       </c>
       <c r="V22" t="n">
-        <v>1212.179877568234</v>
+        <v>1441.865312254224</v>
       </c>
       <c r="W22" t="n">
-        <v>1076.283759617486</v>
+        <v>1282.556821786939</v>
       </c>
       <c r="X22" t="n">
-        <v>848.2942087194683</v>
+        <v>1054.567270888921</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.2942087194683</v>
+        <v>833.7746917453914</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2400.872509449727</v>
+        <v>2400.872509449729</v>
       </c>
       <c r="C23" t="n">
-        <v>2031.909992509315</v>
+        <v>2031.909992509317</v>
       </c>
       <c r="D23" t="n">
-        <v>1673.644293902565</v>
+        <v>1673.644293902567</v>
       </c>
       <c r="E23" t="n">
-        <v>1287.856041304321</v>
+        <v>1287.856041304322</v>
       </c>
       <c r="F23" t="n">
-        <v>876.8701365147135</v>
+        <v>876.8701365147149</v>
       </c>
       <c r="G23" t="n">
-        <v>461.2787405853526</v>
+        <v>461.2787405853538</v>
       </c>
       <c r="H23" t="n">
-        <v>158.3804867824812</v>
+        <v>158.3804867824822</v>
       </c>
       <c r="I23" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J23" t="n">
-        <v>375.6486087816415</v>
+        <v>409.4933301099713</v>
       </c>
       <c r="K23" t="n">
-        <v>644.7697697126056</v>
+        <v>999.5184494863856</v>
       </c>
       <c r="L23" t="n">
-        <v>1429.024731431251</v>
+        <v>1783.773411205027</v>
       </c>
       <c r="M23" t="n">
-        <v>2318.266031569743</v>
+        <v>2383.325287244013</v>
       </c>
       <c r="N23" t="n">
-        <v>3207.264188071819</v>
+        <v>3272.323443746085</v>
       </c>
       <c r="O23" t="n">
-        <v>4001.5323004063</v>
+        <v>4066.591556080562</v>
       </c>
       <c r="P23" t="n">
-        <v>4323.166654244246</v>
+        <v>4388.225909918505</v>
       </c>
       <c r="Q23" t="n">
-        <v>4726.719753341851</v>
+        <v>4791.779009016107</v>
       </c>
       <c r="R23" t="n">
-        <v>4818.846552801642</v>
+        <v>4818.846552801644</v>
       </c>
       <c r="S23" t="n">
-        <v>4696.730407495565</v>
+        <v>4696.730407495567</v>
       </c>
       <c r="T23" t="n">
-        <v>4488.480974752538</v>
+        <v>4488.48097475254</v>
       </c>
       <c r="U23" t="n">
-        <v>4234.908982364425</v>
+        <v>4234.908982364427</v>
       </c>
       <c r="V23" t="n">
-        <v>3903.846095020855</v>
+        <v>3903.846095020857</v>
       </c>
       <c r="W23" t="n">
-        <v>3551.07743975074</v>
+        <v>3551.077439750743</v>
       </c>
       <c r="X23" t="n">
-        <v>3177.61168148966</v>
+        <v>3177.611681489663</v>
       </c>
       <c r="Y23" t="n">
-        <v>2787.472349513849</v>
+        <v>2787.472349513851</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>973.6997189170341</v>
+        <v>973.6997189170348</v>
       </c>
       <c r="C24" t="n">
-        <v>799.2466896359072</v>
+        <v>799.2466896359078</v>
       </c>
       <c r="D24" t="n">
-        <v>650.3122799746559</v>
+        <v>650.3122799746566</v>
       </c>
       <c r="E24" t="n">
-        <v>491.0748249692004</v>
+        <v>491.074824969201</v>
       </c>
       <c r="F24" t="n">
-        <v>344.5402669960854</v>
+        <v>344.540266996086</v>
       </c>
       <c r="G24" t="n">
-        <v>207.899506360848</v>
+        <v>207.8995063608486</v>
       </c>
       <c r="H24" t="n">
-        <v>114.7159964275846</v>
+        <v>114.715996427585</v>
       </c>
       <c r="I24" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J24" t="n">
-        <v>289.1735335874794</v>
+        <v>164.3434086004735</v>
       </c>
       <c r="K24" t="n">
-        <v>745.3144786195758</v>
+        <v>620.4843536325679</v>
       </c>
       <c r="L24" t="n">
-        <v>1094.640200438734</v>
+        <v>928.0945999535209</v>
       </c>
       <c r="M24" t="n">
-        <v>1472.963717029577</v>
+        <v>1306.418116544361</v>
       </c>
       <c r="N24" t="n">
-        <v>1875.708976283569</v>
+        <v>1709.16337579835</v>
       </c>
       <c r="O24" t="n">
-        <v>2221.922410629242</v>
+        <v>2055.376810144019</v>
       </c>
       <c r="P24" t="n">
-        <v>2480.456148163903</v>
+        <v>2480.456148163907</v>
       </c>
       <c r="Q24" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="R24" t="n">
-        <v>2603.359908642243</v>
+        <v>2603.359908642245</v>
       </c>
       <c r="S24" t="n">
-        <v>2468.764600726214</v>
+        <v>2468.764600726215</v>
       </c>
       <c r="T24" t="n">
         <v>2275.002433869161</v>
       </c>
       <c r="U24" t="n">
-        <v>2046.916319867533</v>
+        <v>2046.916319867534</v>
       </c>
       <c r="V24" t="n">
-        <v>1811.76421163579</v>
+        <v>1811.764211635791</v>
       </c>
       <c r="W24" t="n">
         <v>1557.526854907589</v>
       </c>
       <c r="X24" t="n">
-        <v>1349.675354702056</v>
+        <v>1349.675354702057</v>
       </c>
       <c r="Y24" t="n">
-        <v>1141.915055937102</v>
+        <v>1141.915055937103</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>832.3778158935975</v>
+        <v>814.9325672389328</v>
       </c>
       <c r="C25" t="n">
-        <v>663.4416329656906</v>
+        <v>645.996384311026</v>
       </c>
       <c r="D25" t="n">
-        <v>663.4416329656906</v>
+        <v>495.8797448986902</v>
       </c>
       <c r="E25" t="n">
-        <v>515.5285393832975</v>
+        <v>495.8797448986902</v>
       </c>
       <c r="F25" t="n">
-        <v>368.6385918853871</v>
+        <v>348.9897974007798</v>
       </c>
       <c r="G25" t="n">
-        <v>200.7029740510756</v>
+        <v>348.9897974007798</v>
       </c>
       <c r="H25" t="n">
-        <v>200.7029740510756</v>
+        <v>200.702974051076</v>
       </c>
       <c r="I25" t="n">
-        <v>96.37693105603284</v>
+        <v>96.37693105603289</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3694388909376</v>
+        <v>125.3694388909369</v>
       </c>
       <c r="K25" t="n">
-        <v>302.8498721237596</v>
+        <v>302.8498721237577</v>
       </c>
       <c r="L25" t="n">
-        <v>585.4901568902251</v>
+        <v>585.4901568902217</v>
       </c>
       <c r="M25" t="n">
-        <v>893.8838311788254</v>
+        <v>893.8838311788204</v>
       </c>
       <c r="N25" t="n">
-        <v>1200.37920960845</v>
+        <v>1200.379209608444</v>
       </c>
       <c r="O25" t="n">
-        <v>1467.461003788237</v>
+        <v>1467.461003788229</v>
       </c>
       <c r="P25" t="n">
-        <v>1672.474936285872</v>
+        <v>1672.474936285863</v>
       </c>
       <c r="Q25" t="n">
-        <v>1730.980876285446</v>
+        <v>1730.980876285437</v>
       </c>
       <c r="R25" t="n">
-        <v>1730.980876285446</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="S25" t="n">
-        <v>1730.980876285446</v>
+        <v>1630.683729407832</v>
       </c>
       <c r="T25" t="n">
-        <v>1508.21965023457</v>
+        <v>1445.36316211072</v>
       </c>
       <c r="U25" t="n">
-        <v>1508.21965023457</v>
+        <v>1445.36316211072</v>
       </c>
       <c r="V25" t="n">
-        <v>1508.21965023457</v>
+        <v>1445.36316211072</v>
       </c>
       <c r="W25" t="n">
-        <v>1218.802480197609</v>
+        <v>1445.36316211072</v>
       </c>
       <c r="X25" t="n">
-        <v>1218.802480197609</v>
+        <v>1217.373611212703</v>
       </c>
       <c r="Y25" t="n">
-        <v>998.0099010540788</v>
+        <v>996.5810320691726</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>805.0466682503443</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1919.558911522784</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1727.87302734961</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1506.106411919136</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U28" t="n">
-        <v>1217.00354504478</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V28" t="n">
-        <v>962.3190568388932</v>
+        <v>1724.894433159092</v>
       </c>
       <c r="W28" t="n">
-        <v>672.9018868019325</v>
+        <v>1435.477263122131</v>
       </c>
       <c r="X28" t="n">
-        <v>444.9123359039152</v>
+        <v>1207.487712224114</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>986.695133080584</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6461,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870722</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6516,64 +6516,64 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819758</v>
+        <v>145.437078681976</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,13 +6640,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
         <v>1967.452490122057</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862919</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6856,13 +6856,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477364</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6944,19 +6944,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7005,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1905.506714936591</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160444</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819754</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>80.34519009455215</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>134.3427217219098</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.92877451773191</v>
+        <v>35.92877451773185</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,13 +8933,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>272.4461698348462</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>138.0163977317471</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>96.5247932143082</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.52479321432935</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>17.20982200995851</v>
+        <v>17.20982200995928</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>178.1284034595698</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>272.4461698348466</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>96.5247932143082</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.52479321432935</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>17.20982200995851</v>
+        <v>17.20982200995928</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>25.42631046016089</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>272.4461698348462</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>96.5247932143082</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>222.6158285547383</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>17.20982200995851</v>
+        <v>17.20982200995928</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>134.9100279717388</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>156.8979535943452</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>42.13684393757859</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>168.2278792780086</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>17.20982200995851</v>
+        <v>17.20982200995928</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>96.13798426930805</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>246.454569480845</v>
+        <v>205.072779630122</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>282.7041781993166</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>351.4175304294036</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.54454252825401</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>88.82731317673037</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>198.7692665780071</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>74.0072542055228</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>43.41032045388681</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>43.41032045388451</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.0512283208443</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.8839888646232</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>110.6592196523228</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.1901307509773</v>
+        <v>137.1976918032466</v>
       </c>
       <c r="T13" t="n">
         <v>221.6135917107971</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2381953430762</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.5935921594223</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>73.46767758439194</v>
+        <v>166.2562616559684</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8039551162067</v>
+        <v>123.6204724352711</v>
       </c>
       <c r="I16" t="n">
-        <v>103.2827825650923</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.29417540882829</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.7851995308442</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.726361637730122</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.2562616559684</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8039551162067</v>
+        <v>146.8039551162068</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>193.7851995308441</v>
+        <v>193.7851995308442</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>116.9438171205848</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2562616559684</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.8039551162067</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>99.29417540882876</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.7851995308442</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.533613790368</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2244083909005</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>151.9858415653503</v>
+        <v>128.8075927739788</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.85621587306079</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2562616559684</v>
       </c>
       <c r="H25" t="n">
-        <v>146.8039551162067</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>99.29417540882829</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.7851995308441</v>
+        <v>193.7851995308442</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>37.06625216622726</v>
       </c>
       <c r="U25" t="n">
         <v>286.2244083909005</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.51544363394674</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>111.9352533777204</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-4.709566198145672e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1293615.290351932</v>
+        <v>1293615.290351933</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1287484.837118055</v>
+        <v>1287484.837118056</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1287484.837118055</v>
+        <v>1287484.837118056</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1287484.837118055</v>
+        <v>1287484.837118056</v>
       </c>
     </row>
     <row r="10">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117124.2883758208</v>
+        <v>117124.2883758209</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>116730.4072261043</v>
       </c>
       <c r="F2" t="n">
-        <v>118229.9292658593</v>
+        <v>118229.9292658591</v>
       </c>
       <c r="G2" t="n">
-        <v>118229.9292658593</v>
+        <v>118229.9292658591</v>
       </c>
       <c r="H2" t="n">
-        <v>118229.9292658593</v>
+        <v>118229.9292658591</v>
       </c>
       <c r="I2" t="n">
-        <v>118229.9292658593</v>
+        <v>118229.9292658591</v>
       </c>
       <c r="J2" t="n">
         <v>119124.536066095</v>
       </c>
       <c r="K2" t="n">
+        <v>123156.2654796423</v>
+      </c>
+      <c r="L2" t="n">
         <v>123156.2654796424</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>123156.2654796423</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="N2" t="n">
-        <v>123156.2654796423</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796424</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>515139.2567303869</v>
+        <v>515139.2567303873</v>
       </c>
       <c r="F3" t="n">
-        <v>110794.578693892</v>
+        <v>110794.5786938871</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268297.772974482</v>
+        <v>268297.772974486</v>
       </c>
       <c r="K3" t="n">
+        <v>37580.10929487403</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>132183.8735665689</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>37580.10929487406</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>132183.8735665688</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37580.10929487405</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160396.3273141779</v>
+        <v>160396.3273141783</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36590.62216197859</v>
+        <v>36590.62216197858</v>
       </c>
       <c r="F4" t="n">
-        <v>27155.64488044512</v>
+        <v>27155.64488044553</v>
       </c>
       <c r="G4" t="n">
-        <v>27155.64488044513</v>
+        <v>27155.64488044556</v>
       </c>
       <c r="H4" t="n">
-        <v>27155.64488044512</v>
+        <v>27155.64488044553</v>
       </c>
       <c r="I4" t="n">
-        <v>27155.64488044512</v>
+        <v>27155.64488044553</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.653297409</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91161.97944239514</v>
+        <v>91161.97944239518</v>
       </c>
       <c r="F5" t="n">
-        <v>94217.62760960076</v>
+        <v>94217.62760960066</v>
       </c>
       <c r="G5" t="n">
-        <v>94217.62760960076</v>
+        <v>94217.62760960066</v>
       </c>
       <c r="H5" t="n">
-        <v>94217.62760960076</v>
+        <v>94217.62760960066</v>
       </c>
       <c r="I5" t="n">
-        <v>94217.62760960076</v>
+        <v>94217.62760960066</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-716098.9962163109</v>
+        <v>-716199.5291680418</v>
       </c>
       <c r="C6" t="n">
         <v>-143051.499440895</v>
@@ -26528,40 +26528,40 @@
         <v>-143051.499440895</v>
       </c>
       <c r="E6" t="n">
-        <v>-526161.4511086562</v>
+        <v>-526268.5487462156</v>
       </c>
       <c r="F6" t="n">
-        <v>-113937.9219180786</v>
+        <v>-114020.0275216372</v>
       </c>
       <c r="G6" t="n">
-        <v>-3143.34322418661</v>
+        <v>-3225.448827750146</v>
       </c>
       <c r="H6" t="n">
-        <v>-3143.34322418661</v>
+        <v>-3225.448827750117</v>
       </c>
       <c r="I6" t="n">
-        <v>-3143.343224186596</v>
+        <v>-3225.448827750132</v>
       </c>
       <c r="J6" t="n">
-        <v>-263705.2474812906</v>
+        <v>-263772.4429715205</v>
       </c>
       <c r="K6" t="n">
-        <v>-48362.16812674281</v>
+        <v>-48362.1681267428</v>
       </c>
       <c r="L6" t="n">
-        <v>-10782.05883186877</v>
+        <v>-10782.05883186875</v>
       </c>
       <c r="M6" t="n">
-        <v>-142965.9323984376</v>
+        <v>-142965.9323984377</v>
       </c>
       <c r="N6" t="n">
-        <v>-10782.05883186878</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="O6" t="n">
-        <v>-10782.05883186871</v>
+        <v>-10782.05883186869</v>
       </c>
       <c r="P6" t="n">
-        <v>-48362.16812674283</v>
+        <v>-48362.16812674284</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>821.8124697160633</v>
+        <v>821.8124697160637</v>
       </c>
       <c r="F3" t="n">
-        <v>961.9798168355871</v>
+        <v>961.9798168355813</v>
       </c>
       <c r="G3" t="n">
-        <v>961.9798168355871</v>
+        <v>961.9798168355813</v>
       </c>
       <c r="H3" t="n">
-        <v>961.9798168355871</v>
+        <v>961.9798168355813</v>
       </c>
       <c r="I3" t="n">
-        <v>961.9798168355871</v>
+        <v>961.9798168355813</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>444.0688054989767</v>
+        <v>444.068805498977</v>
       </c>
       <c r="F3" t="n">
-        <v>140.1673471195238</v>
+        <v>140.1673471195177</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>127.7968837577112</v>
+        <v>127.7968837577167</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>530.424365445855</v>
+        <v>530.4243654458554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>664.0885651590752</v>
+        <v>664.0885651590747</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>530.424365445855</v>
+        <v>530.4243654458554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>530.424365445855</v>
+        <v>530.4243654458554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,19 +27433,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>43.46103481969786</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>99.15291014098017</v>
       </c>
     </row>
     <row r="3">
@@ -27512,13 +27512,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>111.3076844110284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.4077074708228565</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.2846793487037</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>266.2568172696846</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>220.8565276741544</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8436488763595946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.3582817391982</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.303768722476634</v>
+        <v>3.303768722476635</v>
       </c>
       <c r="H11" t="n">
-        <v>33.83472142906383</v>
+        <v>33.83472142906385</v>
       </c>
       <c r="I11" t="n">
         <v>127.3685436732806</v>
       </c>
       <c r="J11" t="n">
-        <v>280.4032406093015</v>
+        <v>280.4032406093016</v>
       </c>
       <c r="K11" t="n">
-        <v>420.2517706317375</v>
+        <v>420.2517706317377</v>
       </c>
       <c r="L11" t="n">
-        <v>521.3594826722318</v>
+        <v>521.359482672232</v>
       </c>
       <c r="M11" t="n">
-        <v>580.1128796905757</v>
+        <v>580.1128796905759</v>
       </c>
       <c r="N11" t="n">
-        <v>589.4997125733124</v>
+        <v>589.4997125733128</v>
       </c>
       <c r="O11" t="n">
-        <v>556.6478623391854</v>
+        <v>556.6478623391856</v>
       </c>
       <c r="P11" t="n">
-        <v>475.0860720030435</v>
+        <v>475.0860720030436</v>
       </c>
       <c r="Q11" t="n">
-        <v>356.7698546293489</v>
+        <v>356.769854629349</v>
       </c>
       <c r="R11" t="n">
-        <v>207.530362013273</v>
+        <v>207.5303620132731</v>
       </c>
       <c r="S11" t="n">
-        <v>75.28462976343637</v>
+        <v>75.2846297634364</v>
       </c>
       <c r="T11" t="n">
-        <v>14.46224758264147</v>
+        <v>14.46224758264148</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2643014977981307</v>
+        <v>0.2643014977981308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.767672104672287</v>
+        <v>1.767672104672288</v>
       </c>
       <c r="H12" t="n">
-        <v>17.07199111617709</v>
+        <v>17.0719911161771</v>
       </c>
       <c r="I12" t="n">
-        <v>60.86064044595376</v>
+        <v>60.86064044595378</v>
       </c>
       <c r="J12" t="n">
-        <v>167.0062491523936</v>
+        <v>167.0062491523937</v>
       </c>
       <c r="K12" t="n">
-        <v>285.4402801654368</v>
+        <v>285.4402801654369</v>
       </c>
       <c r="L12" t="n">
-        <v>383.8096822008841</v>
+        <v>383.8096822008843</v>
       </c>
       <c r="M12" t="n">
-        <v>447.8877959952545</v>
+        <v>447.8877959952546</v>
       </c>
       <c r="N12" t="n">
-        <v>459.7420532235174</v>
+        <v>459.7420532235176</v>
       </c>
       <c r="O12" t="n">
-        <v>420.5741607989366</v>
+        <v>420.5741607989369</v>
       </c>
       <c r="P12" t="n">
-        <v>337.5478425141318</v>
+        <v>337.5478425141319</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.641793571852</v>
+        <v>225.6417935718521</v>
       </c>
       <c r="R12" t="n">
-        <v>109.750729446232</v>
+        <v>109.7507294462321</v>
       </c>
       <c r="S12" t="n">
-        <v>32.83373404950496</v>
+        <v>32.83373404950498</v>
       </c>
       <c r="T12" t="n">
-        <v>7.124959053481716</v>
+        <v>7.124959053481719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1162942174126505</v>
+        <v>0.1162942174126506</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.481956912602737</v>
+        <v>1.481956912602738</v>
       </c>
       <c r="H13" t="n">
-        <v>13.17594418659525</v>
+        <v>13.17594418659526</v>
       </c>
       <c r="I13" t="n">
-        <v>44.56648606263505</v>
+        <v>44.56648606263507</v>
       </c>
       <c r="J13" t="n">
         <v>104.7743537210135</v>
@@ -31923,34 +31923,34 @@
         <v>172.1764485732998</v>
       </c>
       <c r="L13" t="n">
-        <v>220.3265758973197</v>
+        <v>220.3265758973198</v>
       </c>
       <c r="M13" t="n">
         <v>232.3034822182636</v>
       </c>
       <c r="N13" t="n">
-        <v>226.7798246349263</v>
+        <v>226.7798246349264</v>
       </c>
       <c r="O13" t="n">
-        <v>209.4678734286124</v>
+        <v>209.4678734286125</v>
       </c>
       <c r="P13" t="n">
-        <v>179.2359524115164</v>
+        <v>179.2359524115165</v>
       </c>
       <c r="Q13" t="n">
         <v>124.0936829271256</v>
       </c>
       <c r="R13" t="n">
-        <v>66.63417172484668</v>
+        <v>66.63417172484671</v>
       </c>
       <c r="S13" t="n">
-        <v>25.82646728599496</v>
+        <v>25.82646728599497</v>
       </c>
       <c r="T13" t="n">
-        <v>6.33199771748442</v>
+        <v>6.331997717484422</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08083401341469484</v>
+        <v>0.08083401341469487</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.867255545067684</v>
+        <v>3.867255545067661</v>
       </c>
       <c r="H14" t="n">
-        <v>39.60553085092443</v>
+        <v>39.60553085092419</v>
       </c>
       <c r="I14" t="n">
-        <v>149.092369401222</v>
+        <v>149.0923694012211</v>
       </c>
       <c r="J14" t="n">
-        <v>328.2284803181886</v>
+        <v>328.2284803181867</v>
       </c>
       <c r="K14" t="n">
-        <v>491.9294075409038</v>
+        <v>491.9294075409009</v>
       </c>
       <c r="L14" t="n">
-        <v>610.2819294282691</v>
+        <v>610.2819294282654</v>
       </c>
       <c r="M14" t="n">
-        <v>679.0562352278665</v>
+        <v>679.0562352278624</v>
       </c>
       <c r="N14" t="n">
-        <v>690.0440750452901</v>
+        <v>690.0440750452859</v>
       </c>
       <c r="O14" t="n">
-        <v>651.5890527190232</v>
+        <v>651.5890527190194</v>
       </c>
       <c r="P14" t="n">
-        <v>556.1161814501647</v>
+        <v>556.1161814501613</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.6200922424281</v>
+        <v>417.6200922424256</v>
       </c>
       <c r="R14" t="n">
-        <v>242.9264911328581</v>
+        <v>242.9264911328567</v>
       </c>
       <c r="S14" t="n">
-        <v>88.12508573322994</v>
+        <v>88.12508573322941</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9289111485338</v>
+        <v>16.92891114853369</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3093804436054147</v>
+        <v>0.3093804436054128</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.069164134325602</v>
+        <v>2.06916413432559</v>
       </c>
       <c r="H15" t="n">
-        <v>19.98376940256569</v>
+        <v>19.98376940256557</v>
       </c>
       <c r="I15" t="n">
-        <v>71.24095813357887</v>
+        <v>71.24095813357845</v>
       </c>
       <c r="J15" t="n">
-        <v>195.490634287315</v>
+        <v>195.4906342873138</v>
       </c>
       <c r="K15" t="n">
-        <v>334.1246312871303</v>
+        <v>334.1246312871283</v>
       </c>
       <c r="L15" t="n">
-        <v>449.271800306092</v>
+        <v>449.2718003060892</v>
       </c>
       <c r="M15" t="n">
-        <v>524.2790001753949</v>
+        <v>524.2790001753917</v>
       </c>
       <c r="N15" t="n">
-        <v>538.1551052691839</v>
+        <v>538.1551052691806</v>
       </c>
       <c r="O15" t="n">
-        <v>492.3067841875481</v>
+        <v>492.3067841875451</v>
       </c>
       <c r="P15" t="n">
-        <v>395.1195968432811</v>
+        <v>395.1195968432787</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.126986690405</v>
+        <v>264.1269866904034</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4696819540054</v>
+        <v>128.4696819540047</v>
       </c>
       <c r="S15" t="n">
-        <v>38.43381626696895</v>
+        <v>38.43381626696872</v>
       </c>
       <c r="T15" t="n">
-        <v>8.34018350633872</v>
+        <v>8.340183506338668</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1361292193635265</v>
+        <v>0.1361292193635257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.734717702490403</v>
+        <v>1.734717702490392</v>
       </c>
       <c r="H16" t="n">
-        <v>15.42321739123287</v>
+        <v>15.42321739123277</v>
       </c>
       <c r="I16" t="n">
-        <v>52.16769236216595</v>
+        <v>52.16769236216564</v>
       </c>
       <c r="J16" t="n">
-        <v>122.6445415660715</v>
+        <v>122.6445415660707</v>
       </c>
       <c r="K16" t="n">
-        <v>201.5426567075213</v>
+        <v>201.5426567075201</v>
       </c>
       <c r="L16" t="n">
-        <v>257.9052118775277</v>
+        <v>257.9052118775262</v>
       </c>
       <c r="M16" t="n">
-        <v>271.9248849458365</v>
+        <v>271.9248849458348</v>
       </c>
       <c r="N16" t="n">
-        <v>265.459118963827</v>
+        <v>265.4591189638254</v>
       </c>
       <c r="O16" t="n">
-        <v>245.1944621665527</v>
+        <v>245.1944621665512</v>
       </c>
       <c r="P16" t="n">
-        <v>209.8062210357483</v>
+        <v>209.806221035747</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.2589523421736</v>
+        <v>145.2589523421728</v>
       </c>
       <c r="R16" t="n">
-        <v>77.99921596834119</v>
+        <v>77.99921596834072</v>
       </c>
       <c r="S16" t="n">
-        <v>30.23139850612819</v>
+        <v>30.23139850612801</v>
       </c>
       <c r="T16" t="n">
-        <v>7.411975637913538</v>
+        <v>7.411975637913493</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09462096559038571</v>
+        <v>0.09462096559038514</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.867255545067684</v>
+        <v>3.867255545067661</v>
       </c>
       <c r="H17" t="n">
-        <v>39.60553085092443</v>
+        <v>39.60553085092419</v>
       </c>
       <c r="I17" t="n">
-        <v>149.092369401222</v>
+        <v>149.0923694012211</v>
       </c>
       <c r="J17" t="n">
-        <v>328.2284803181886</v>
+        <v>328.2284803181867</v>
       </c>
       <c r="K17" t="n">
-        <v>491.9294075409038</v>
+        <v>491.9294075409009</v>
       </c>
       <c r="L17" t="n">
-        <v>610.2819294282691</v>
+        <v>610.2819294282654</v>
       </c>
       <c r="M17" t="n">
-        <v>679.0562352278665</v>
+        <v>679.0562352278624</v>
       </c>
       <c r="N17" t="n">
-        <v>690.0440750452901</v>
+        <v>690.0440750452859</v>
       </c>
       <c r="O17" t="n">
-        <v>651.5890527190232</v>
+        <v>651.5890527190194</v>
       </c>
       <c r="P17" t="n">
-        <v>556.1161814501647</v>
+        <v>556.1161814501613</v>
       </c>
       <c r="Q17" t="n">
-        <v>417.6200922424281</v>
+        <v>417.6200922424256</v>
       </c>
       <c r="R17" t="n">
-        <v>242.9264911328581</v>
+        <v>242.9264911328567</v>
       </c>
       <c r="S17" t="n">
-        <v>88.12508573322994</v>
+        <v>88.12508573322941</v>
       </c>
       <c r="T17" t="n">
-        <v>16.9289111485338</v>
+        <v>16.92891114853369</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3093804436054147</v>
+        <v>0.3093804436054128</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.069164134325602</v>
+        <v>2.06916413432559</v>
       </c>
       <c r="H18" t="n">
-        <v>19.98376940256569</v>
+        <v>19.98376940256557</v>
       </c>
       <c r="I18" t="n">
-        <v>71.24095813357887</v>
+        <v>71.24095813357845</v>
       </c>
       <c r="J18" t="n">
-        <v>195.490634287315</v>
+        <v>195.4906342873138</v>
       </c>
       <c r="K18" t="n">
-        <v>334.1246312871303</v>
+        <v>334.1246312871283</v>
       </c>
       <c r="L18" t="n">
-        <v>449.271800306092</v>
+        <v>449.2718003060892</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2790001753949</v>
+        <v>524.2790001753917</v>
       </c>
       <c r="N18" t="n">
-        <v>538.1551052691839</v>
+        <v>538.1551052691806</v>
       </c>
       <c r="O18" t="n">
-        <v>492.3067841875481</v>
+        <v>492.3067841875451</v>
       </c>
       <c r="P18" t="n">
-        <v>395.1195968432811</v>
+        <v>395.1195968432787</v>
       </c>
       <c r="Q18" t="n">
-        <v>264.126986690405</v>
+        <v>264.1269866904034</v>
       </c>
       <c r="R18" t="n">
-        <v>128.4696819540054</v>
+        <v>128.4696819540047</v>
       </c>
       <c r="S18" t="n">
-        <v>38.43381626696895</v>
+        <v>38.43381626696872</v>
       </c>
       <c r="T18" t="n">
-        <v>8.34018350633872</v>
+        <v>8.340183506338668</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1361292193635265</v>
+        <v>0.1361292193635257</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.734717702490403</v>
+        <v>1.734717702490392</v>
       </c>
       <c r="H19" t="n">
-        <v>15.42321739123287</v>
+        <v>15.42321739123277</v>
       </c>
       <c r="I19" t="n">
-        <v>52.16769236216595</v>
+        <v>52.16769236216564</v>
       </c>
       <c r="J19" t="n">
-        <v>122.6445415660715</v>
+        <v>122.6445415660707</v>
       </c>
       <c r="K19" t="n">
-        <v>201.5426567075213</v>
+        <v>201.5426567075201</v>
       </c>
       <c r="L19" t="n">
-        <v>257.9052118775277</v>
+        <v>257.9052118775262</v>
       </c>
       <c r="M19" t="n">
-        <v>271.9248849458365</v>
+        <v>271.9248849458348</v>
       </c>
       <c r="N19" t="n">
-        <v>265.459118963827</v>
+        <v>265.4591189638254</v>
       </c>
       <c r="O19" t="n">
-        <v>245.1944621665527</v>
+        <v>245.1944621665512</v>
       </c>
       <c r="P19" t="n">
-        <v>209.8062210357483</v>
+        <v>209.806221035747</v>
       </c>
       <c r="Q19" t="n">
-        <v>145.2589523421736</v>
+        <v>145.2589523421728</v>
       </c>
       <c r="R19" t="n">
-        <v>77.99921596834119</v>
+        <v>77.99921596834072</v>
       </c>
       <c r="S19" t="n">
-        <v>30.23139850612819</v>
+        <v>30.23139850612801</v>
       </c>
       <c r="T19" t="n">
-        <v>7.411975637913538</v>
+        <v>7.411975637913493</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09462096559038571</v>
+        <v>0.09462096559038514</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.867255545067684</v>
+        <v>3.867255545067661</v>
       </c>
       <c r="H20" t="n">
-        <v>39.60553085092443</v>
+        <v>39.60553085092419</v>
       </c>
       <c r="I20" t="n">
-        <v>149.092369401222</v>
+        <v>149.0923694012211</v>
       </c>
       <c r="J20" t="n">
-        <v>328.2284803181886</v>
+        <v>328.2284803181867</v>
       </c>
       <c r="K20" t="n">
-        <v>491.9294075409038</v>
+        <v>491.9294075409009</v>
       </c>
       <c r="L20" t="n">
-        <v>610.2819294282691</v>
+        <v>610.2819294282654</v>
       </c>
       <c r="M20" t="n">
-        <v>679.0562352278665</v>
+        <v>679.0562352278624</v>
       </c>
       <c r="N20" t="n">
-        <v>690.0440750452901</v>
+        <v>690.0440750452859</v>
       </c>
       <c r="O20" t="n">
-        <v>651.5890527190232</v>
+        <v>651.5890527190194</v>
       </c>
       <c r="P20" t="n">
-        <v>556.1161814501647</v>
+        <v>556.1161814501613</v>
       </c>
       <c r="Q20" t="n">
-        <v>417.6200922424281</v>
+        <v>417.6200922424256</v>
       </c>
       <c r="R20" t="n">
-        <v>242.9264911328581</v>
+        <v>242.9264911328567</v>
       </c>
       <c r="S20" t="n">
-        <v>88.12508573322994</v>
+        <v>88.12508573322941</v>
       </c>
       <c r="T20" t="n">
-        <v>16.9289111485338</v>
+        <v>16.92891114853369</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3093804436054147</v>
+        <v>0.3093804436054128</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.069164134325602</v>
+        <v>2.06916413432559</v>
       </c>
       <c r="H21" t="n">
-        <v>19.98376940256569</v>
+        <v>19.98376940256557</v>
       </c>
       <c r="I21" t="n">
-        <v>71.24095813357887</v>
+        <v>71.24095813357845</v>
       </c>
       <c r="J21" t="n">
-        <v>195.490634287315</v>
+        <v>195.4906342873138</v>
       </c>
       <c r="K21" t="n">
-        <v>334.1246312871303</v>
+        <v>334.1246312871283</v>
       </c>
       <c r="L21" t="n">
-        <v>449.271800306092</v>
+        <v>449.2718003060892</v>
       </c>
       <c r="M21" t="n">
-        <v>524.2790001753949</v>
+        <v>524.2790001753917</v>
       </c>
       <c r="N21" t="n">
-        <v>538.1551052691839</v>
+        <v>538.1551052691806</v>
       </c>
       <c r="O21" t="n">
-        <v>492.3067841875481</v>
+        <v>492.3067841875451</v>
       </c>
       <c r="P21" t="n">
-        <v>395.1195968432811</v>
+        <v>395.1195968432787</v>
       </c>
       <c r="Q21" t="n">
-        <v>264.126986690405</v>
+        <v>264.1269866904034</v>
       </c>
       <c r="R21" t="n">
-        <v>128.4696819540054</v>
+        <v>128.4696819540047</v>
       </c>
       <c r="S21" t="n">
-        <v>38.43381626696895</v>
+        <v>38.43381626696872</v>
       </c>
       <c r="T21" t="n">
-        <v>8.34018350633872</v>
+        <v>8.340183506338668</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1361292193635265</v>
+        <v>0.1361292193635257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.734717702490403</v>
+        <v>1.734717702490392</v>
       </c>
       <c r="H22" t="n">
-        <v>15.42321739123287</v>
+        <v>15.42321739123277</v>
       </c>
       <c r="I22" t="n">
-        <v>52.16769236216595</v>
+        <v>52.16769236216564</v>
       </c>
       <c r="J22" t="n">
-        <v>122.6445415660715</v>
+        <v>122.6445415660707</v>
       </c>
       <c r="K22" t="n">
-        <v>201.5426567075213</v>
+        <v>201.5426567075201</v>
       </c>
       <c r="L22" t="n">
-        <v>257.9052118775277</v>
+        <v>257.9052118775262</v>
       </c>
       <c r="M22" t="n">
-        <v>271.9248849458365</v>
+        <v>271.9248849458348</v>
       </c>
       <c r="N22" t="n">
-        <v>265.459118963827</v>
+        <v>265.4591189638254</v>
       </c>
       <c r="O22" t="n">
-        <v>245.1944621665527</v>
+        <v>245.1944621665512</v>
       </c>
       <c r="P22" t="n">
-        <v>209.8062210357483</v>
+        <v>209.806221035747</v>
       </c>
       <c r="Q22" t="n">
-        <v>145.2589523421736</v>
+        <v>145.2589523421728</v>
       </c>
       <c r="R22" t="n">
-        <v>77.99921596834119</v>
+        <v>77.99921596834072</v>
       </c>
       <c r="S22" t="n">
-        <v>30.23139850612819</v>
+        <v>30.23139850612801</v>
       </c>
       <c r="T22" t="n">
-        <v>7.411975637913538</v>
+        <v>7.411975637913493</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09462096559038571</v>
+        <v>0.09462096559038514</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.867255545067684</v>
+        <v>3.867255545067661</v>
       </c>
       <c r="H23" t="n">
-        <v>39.60553085092443</v>
+        <v>39.60553085092419</v>
       </c>
       <c r="I23" t="n">
-        <v>149.092369401222</v>
+        <v>149.0923694012211</v>
       </c>
       <c r="J23" t="n">
-        <v>328.2284803181886</v>
+        <v>328.2284803181867</v>
       </c>
       <c r="K23" t="n">
-        <v>491.9294075409038</v>
+        <v>491.9294075409009</v>
       </c>
       <c r="L23" t="n">
-        <v>610.2819294282691</v>
+        <v>610.2819294282654</v>
       </c>
       <c r="M23" t="n">
-        <v>679.0562352278665</v>
+        <v>679.0562352278624</v>
       </c>
       <c r="N23" t="n">
-        <v>690.0440750452901</v>
+        <v>690.0440750452859</v>
       </c>
       <c r="O23" t="n">
-        <v>651.5890527190232</v>
+        <v>651.5890527190194</v>
       </c>
       <c r="P23" t="n">
-        <v>556.1161814501647</v>
+        <v>556.1161814501613</v>
       </c>
       <c r="Q23" t="n">
-        <v>417.6200922424281</v>
+        <v>417.6200922424256</v>
       </c>
       <c r="R23" t="n">
-        <v>242.9264911328581</v>
+        <v>242.9264911328567</v>
       </c>
       <c r="S23" t="n">
-        <v>88.12508573322994</v>
+        <v>88.12508573322941</v>
       </c>
       <c r="T23" t="n">
-        <v>16.9289111485338</v>
+        <v>16.92891114853369</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3093804436054147</v>
+        <v>0.3093804436054128</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.069164134325602</v>
+        <v>2.06916413432559</v>
       </c>
       <c r="H24" t="n">
-        <v>19.98376940256569</v>
+        <v>19.98376940256557</v>
       </c>
       <c r="I24" t="n">
-        <v>71.24095813357887</v>
+        <v>71.24095813357845</v>
       </c>
       <c r="J24" t="n">
-        <v>195.490634287315</v>
+        <v>195.4906342873138</v>
       </c>
       <c r="K24" t="n">
-        <v>334.1246312871303</v>
+        <v>334.1246312871283</v>
       </c>
       <c r="L24" t="n">
-        <v>449.271800306092</v>
+        <v>449.2718003060892</v>
       </c>
       <c r="M24" t="n">
-        <v>524.2790001753949</v>
+        <v>524.2790001753917</v>
       </c>
       <c r="N24" t="n">
-        <v>538.1551052691839</v>
+        <v>538.1551052691806</v>
       </c>
       <c r="O24" t="n">
-        <v>492.3067841875481</v>
+        <v>492.3067841875451</v>
       </c>
       <c r="P24" t="n">
-        <v>395.1195968432811</v>
+        <v>395.1195968432787</v>
       </c>
       <c r="Q24" t="n">
-        <v>264.126986690405</v>
+        <v>264.1269866904034</v>
       </c>
       <c r="R24" t="n">
-        <v>128.4696819540054</v>
+        <v>128.4696819540047</v>
       </c>
       <c r="S24" t="n">
-        <v>38.43381626696895</v>
+        <v>38.43381626696872</v>
       </c>
       <c r="T24" t="n">
-        <v>8.34018350633872</v>
+        <v>8.340183506338668</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1361292193635265</v>
+        <v>0.1361292193635257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.734717702490403</v>
+        <v>1.734717702490392</v>
       </c>
       <c r="H25" t="n">
-        <v>15.42321739123287</v>
+        <v>15.42321739123277</v>
       </c>
       <c r="I25" t="n">
-        <v>52.16769236216595</v>
+        <v>52.16769236216564</v>
       </c>
       <c r="J25" t="n">
-        <v>122.6445415660715</v>
+        <v>122.6445415660707</v>
       </c>
       <c r="K25" t="n">
-        <v>201.5426567075213</v>
+        <v>201.5426567075201</v>
       </c>
       <c r="L25" t="n">
-        <v>257.9052118775277</v>
+        <v>257.9052118775262</v>
       </c>
       <c r="M25" t="n">
-        <v>271.9248849458365</v>
+        <v>271.9248849458348</v>
       </c>
       <c r="N25" t="n">
-        <v>265.459118963827</v>
+        <v>265.4591189638254</v>
       </c>
       <c r="O25" t="n">
-        <v>245.1944621665527</v>
+        <v>245.1944621665512</v>
       </c>
       <c r="P25" t="n">
-        <v>209.8062210357483</v>
+        <v>209.806221035747</v>
       </c>
       <c r="Q25" t="n">
-        <v>145.2589523421736</v>
+        <v>145.2589523421728</v>
       </c>
       <c r="R25" t="n">
-        <v>77.99921596834119</v>
+        <v>77.99921596834072</v>
       </c>
       <c r="S25" t="n">
-        <v>30.23139850612819</v>
+        <v>30.23139850612801</v>
       </c>
       <c r="T25" t="n">
-        <v>7.411975637913538</v>
+        <v>7.411975637913493</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09462096559038571</v>
+        <v>0.09462096559038514</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.4539512546889</v>
+        <v>268.4539512546891</v>
       </c>
       <c r="K11" t="n">
-        <v>524.3073321579217</v>
+        <v>524.3073321579218</v>
       </c>
       <c r="L11" t="n">
-        <v>703.254282252695</v>
+        <v>703.2542822526952</v>
       </c>
       <c r="M11" t="n">
-        <v>799.2801799561355</v>
+        <v>799.2801799561357</v>
       </c>
       <c r="N11" t="n">
-        <v>797.4335733887057</v>
+        <v>797.433573388706</v>
       </c>
       <c r="O11" t="n">
-        <v>707.349832180244</v>
+        <v>707.3498321802442</v>
       </c>
       <c r="P11" t="n">
-        <v>565.6517844192565</v>
+        <v>565.6517844192567</v>
       </c>
       <c r="Q11" t="n">
-        <v>346.7791554148041</v>
+        <v>346.7791554148042</v>
       </c>
       <c r="R11" t="n">
-        <v>57.66124407212337</v>
+        <v>57.66124407212345</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>166.2596578261358</v>
       </c>
       <c r="K12" t="n">
-        <v>227.94403128563</v>
+        <v>412.0640782036565</v>
       </c>
       <c r="L12" t="n">
-        <v>245.25530242101</v>
+        <v>379.5980241429199</v>
       </c>
       <c r="M12" t="n">
-        <v>305.7537620732361</v>
+        <v>305.7537620732363</v>
       </c>
       <c r="N12" t="n">
-        <v>328.4003411401841</v>
+        <v>328.4003411401843</v>
       </c>
       <c r="O12" t="n">
-        <v>671.8402356312217</v>
+        <v>671.840235631222</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0362037397388</v>
+        <v>203.5734350998017</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.66001948583047</v>
+        <v>85.66001948583056</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.41517360434072</v>
+        <v>11.41517360434077</v>
       </c>
       <c r="K13" t="n">
-        <v>149.9069567474169</v>
+        <v>149.906956747417</v>
       </c>
       <c r="L13" t="n">
-        <v>247.9166011576358</v>
+        <v>247.9166011576359</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8873591801041</v>
+        <v>271.8873591801042</v>
       </c>
       <c r="N13" t="n">
-        <v>270.9119970141548</v>
+        <v>270.911997014155</v>
       </c>
       <c r="O13" t="n">
-        <v>234.0530013426521</v>
+        <v>234.0530013426522</v>
       </c>
       <c r="P13" t="n">
-        <v>176.5145116764099</v>
+        <v>176.51451167641</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93163967543117</v>
+        <v>37.93163967543123</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>316.2791909635761</v>
+        <v>316.2791909635741</v>
       </c>
       <c r="K14" t="n">
-        <v>595.9849690670881</v>
+        <v>595.9849690670851</v>
       </c>
       <c r="L14" t="n">
-        <v>792.1767290087323</v>
+        <v>792.1767290087286</v>
       </c>
       <c r="M14" t="n">
-        <v>898.2235354934263</v>
+        <v>721.1561718354359</v>
       </c>
       <c r="N14" t="n">
-        <v>460.6310114486992</v>
+        <v>460.631011448695</v>
       </c>
       <c r="O14" t="n">
-        <v>559.5072390290836</v>
+        <v>802.291022560078</v>
       </c>
       <c r="P14" t="n">
-        <v>646.6818938663778</v>
+        <v>646.6818938663744</v>
       </c>
       <c r="Q14" t="n">
-        <v>407.6293930278833</v>
+        <v>407.6293930278808</v>
       </c>
       <c r="R14" t="n">
-        <v>93.05737319170845</v>
+        <v>27.34095331872453</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.7440429610571</v>
+        <v>194.7440429610559</v>
       </c>
       <c r="K15" t="n">
-        <v>292.8079855270796</v>
+        <v>196.2831923127693</v>
       </c>
       <c r="L15" t="n">
-        <v>310.7174205262178</v>
+        <v>407.2422137405444</v>
       </c>
       <c r="M15" t="n">
-        <v>382.1449662533766</v>
+        <v>382.1449662533734</v>
       </c>
       <c r="N15" t="n">
-        <v>406.8133931858506</v>
+        <v>406.8133931858473</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7105397431037</v>
+        <v>349.7105397431006</v>
       </c>
       <c r="P15" t="n">
-        <v>261.1451894289509</v>
+        <v>261.1451894289485</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.2225003402326</v>
+        <v>334.222500340231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.28536144939871</v>
+        <v>29.28536144939797</v>
       </c>
       <c r="K16" t="n">
-        <v>179.2731648816385</v>
+        <v>179.2731648816372</v>
       </c>
       <c r="L16" t="n">
-        <v>285.4952371378439</v>
+        <v>285.4952371378423</v>
       </c>
       <c r="M16" t="n">
-        <v>311.5087619076771</v>
+        <v>311.5087619076754</v>
       </c>
       <c r="N16" t="n">
-        <v>309.5912913430556</v>
+        <v>309.591291343054</v>
       </c>
       <c r="O16" t="n">
-        <v>269.7795900805924</v>
+        <v>269.7795900805909</v>
       </c>
       <c r="P16" t="n">
-        <v>207.0847803006418</v>
+        <v>207.0847803006405</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.09690909047926</v>
+        <v>59.09690909047841</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>316.2791909635761</v>
+        <v>316.2791909635741</v>
       </c>
       <c r="K17" t="n">
-        <v>449.9679599554931</v>
+        <v>595.9849690670851</v>
       </c>
       <c r="L17" t="n">
-        <v>792.1767290087323</v>
+        <v>792.1767290087286</v>
       </c>
       <c r="M17" t="n">
-        <v>898.2235354934263</v>
+        <v>448.7100020005897</v>
       </c>
       <c r="N17" t="n">
-        <v>897.9779358606834</v>
+        <v>733.0771812835416</v>
       </c>
       <c r="O17" t="n">
-        <v>802.2910225600818</v>
+        <v>802.291022560078</v>
       </c>
       <c r="P17" t="n">
-        <v>324.8831856948952</v>
+        <v>646.6818938663744</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.3144023679787</v>
+        <v>407.6293930278808</v>
       </c>
       <c r="R17" t="n">
-        <v>93.05737319170845</v>
+        <v>27.34095331872453</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.7440429610571</v>
+        <v>194.7440429610559</v>
       </c>
       <c r="K18" t="n">
-        <v>292.8079855270796</v>
+        <v>196.2831923127693</v>
       </c>
       <c r="L18" t="n">
-        <v>310.7174205262178</v>
+        <v>407.2422137405444</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1449662533766</v>
+        <v>382.1449662533734</v>
       </c>
       <c r="N18" t="n">
-        <v>406.8133931858506</v>
+        <v>406.8133931858473</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7105397431037</v>
+        <v>349.7105397431006</v>
       </c>
       <c r="P18" t="n">
-        <v>261.1451894289509</v>
+        <v>261.1451894289485</v>
       </c>
       <c r="Q18" t="n">
-        <v>334.2225003402326</v>
+        <v>334.222500340231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.28536144939871</v>
+        <v>29.28536144939797</v>
       </c>
       <c r="K19" t="n">
-        <v>179.2731648816385</v>
+        <v>179.2731648816372</v>
       </c>
       <c r="L19" t="n">
-        <v>285.4952371378439</v>
+        <v>285.4952371378423</v>
       </c>
       <c r="M19" t="n">
-        <v>311.5087619076771</v>
+        <v>311.5087619076754</v>
       </c>
       <c r="N19" t="n">
-        <v>309.5912913430556</v>
+        <v>309.591291343054</v>
       </c>
       <c r="O19" t="n">
-        <v>269.7795900805924</v>
+        <v>269.7795900805909</v>
       </c>
       <c r="P19" t="n">
-        <v>207.0847803006418</v>
+        <v>207.0847803006405</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.09690909047926</v>
+        <v>59.09690909047841</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>172.6088862516633</v>
+        <v>316.2791909635741</v>
       </c>
       <c r="K20" t="n">
-        <v>271.8395564959233</v>
+        <v>595.9849690670851</v>
       </c>
       <c r="L20" t="n">
-        <v>792.1767290087323</v>
+        <v>792.1767290087286</v>
       </c>
       <c r="M20" t="n">
-        <v>898.2235354934263</v>
+        <v>721.1561718354359</v>
       </c>
       <c r="N20" t="n">
-        <v>897.9779358606834</v>
+        <v>460.631011448695</v>
       </c>
       <c r="O20" t="n">
-        <v>802.2910225600818</v>
+        <v>802.291022560078</v>
       </c>
       <c r="P20" t="n">
-        <v>646.6818938663778</v>
+        <v>646.6818938663744</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.3144023679787</v>
+        <v>407.6293930278808</v>
       </c>
       <c r="R20" t="n">
-        <v>93.05737319170845</v>
+        <v>27.34095331872453</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.7440429610571</v>
+        <v>68.65300762064709</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8079855270796</v>
+        <v>196.2831923127693</v>
       </c>
       <c r="L21" t="n">
-        <v>310.7174205262178</v>
+        <v>310.7174205262151</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1449662533766</v>
+        <v>382.1449662533734</v>
       </c>
       <c r="N21" t="n">
-        <v>406.8133931858506</v>
+        <v>406.8133931858473</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7105397431037</v>
+        <v>572.3263682978389</v>
       </c>
       <c r="P21" t="n">
-        <v>261.1451894289509</v>
+        <v>261.1451894289485</v>
       </c>
       <c r="Q21" t="n">
-        <v>334.2225003402326</v>
+        <v>334.222500340231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>29.28536144939871</v>
+        <v>29.28536144939797</v>
       </c>
       <c r="K22" t="n">
-        <v>179.2731648816385</v>
+        <v>179.2731648816372</v>
       </c>
       <c r="L22" t="n">
-        <v>285.4952371378439</v>
+        <v>285.4952371378423</v>
       </c>
       <c r="M22" t="n">
-        <v>311.5087619076771</v>
+        <v>311.5087619076754</v>
       </c>
       <c r="N22" t="n">
-        <v>309.5912913430556</v>
+        <v>309.591291343054</v>
       </c>
       <c r="O22" t="n">
-        <v>269.7795900805924</v>
+        <v>269.7795900805909</v>
       </c>
       <c r="P22" t="n">
-        <v>207.0847803006418</v>
+        <v>207.0847803006405</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.09690909047926</v>
+        <v>59.09690909047841</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.0926037632411</v>
+        <v>316.2791909635741</v>
       </c>
       <c r="K23" t="n">
-        <v>271.8395564959233</v>
+        <v>595.9849690670851</v>
       </c>
       <c r="L23" t="n">
-        <v>792.1767290087323</v>
+        <v>792.1767290087286</v>
       </c>
       <c r="M23" t="n">
-        <v>898.2235354934263</v>
+        <v>605.6079555949349</v>
       </c>
       <c r="N23" t="n">
-        <v>897.9779358606834</v>
+        <v>897.9779358606792</v>
       </c>
       <c r="O23" t="n">
-        <v>802.2910225600818</v>
+        <v>802.291022560078</v>
       </c>
       <c r="P23" t="n">
-        <v>324.8831856948952</v>
+        <v>324.8831856948918</v>
       </c>
       <c r="Q23" t="n">
-        <v>407.6293930278833</v>
+        <v>407.6293930278808</v>
       </c>
       <c r="R23" t="n">
-        <v>93.05737319170845</v>
+        <v>27.34095331872453</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.7440429610571</v>
+        <v>68.65300762064709</v>
       </c>
       <c r="K24" t="n">
-        <v>460.7484293253499</v>
+        <v>460.7484293253479</v>
       </c>
       <c r="L24" t="n">
-        <v>352.8542644637964</v>
+        <v>310.7174205262151</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1449662533766</v>
+        <v>382.1449662533734</v>
       </c>
       <c r="N24" t="n">
-        <v>406.8133931858506</v>
+        <v>406.8133931858473</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7105397431037</v>
+        <v>349.7105397431006</v>
       </c>
       <c r="P24" t="n">
-        <v>261.1451894289509</v>
+        <v>429.373068706957</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.1452126043835</v>
+        <v>124.1452126043819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>29.28536144939871</v>
+        <v>29.28536144939797</v>
       </c>
       <c r="K25" t="n">
-        <v>179.2731648816385</v>
+        <v>179.2731648816372</v>
       </c>
       <c r="L25" t="n">
-        <v>285.4952371378439</v>
+        <v>285.4952371378423</v>
       </c>
       <c r="M25" t="n">
-        <v>311.5087619076771</v>
+        <v>311.5087619076754</v>
       </c>
       <c r="N25" t="n">
-        <v>309.5912913430556</v>
+        <v>309.591291343054</v>
       </c>
       <c r="O25" t="n">
-        <v>269.7795900805924</v>
+        <v>269.7795900805909</v>
       </c>
       <c r="P25" t="n">
-        <v>207.0847803006418</v>
+        <v>207.0847803006405</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.09690909047926</v>
+        <v>59.09690909047841</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>635.0591000995346</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>798.7564048937564</v>
+        <v>757.3746150430333</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>835.0060136122281</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37312,22 +37312,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>807.0076448217358</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>836.7500320793075</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
